--- a/Work/台数テスト/d2v4/d2v4.xlsx
+++ b/Work/台数テスト/d2v4/d2v4.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Work\台数テスト\d2v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B8D63B-2478-4E92-8083-AA7EFEED9703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E8201-3E6C-41BA-9A22-71C1059EDBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1170" windowWidth="17205" windowHeight="14310" xr2:uid="{278742BB-1804-4440-8397-BE53865F7DB8}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="17205" windowHeight="14310" activeTab="1" xr2:uid="{278742BB-1804-4440-8397-BE53865F7DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="d2v4の場合" sheetId="1" r:id="rId1"/>
+    <sheet name="log" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>d1_iti.csv</t>
     <phoneticPr fontId="1"/>
@@ -81,34 +82,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>d1_v1_130.1K2490GD2route_grid</t>
-  </si>
-  <si>
-    <t>d1_v2_130.1K2490GD2route_grid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d1_v3_130.1K2490GD2route_grid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d1_v4_130.1K2490GD2route_grid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d2_v1_130.1K2490GD2route_grid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d2_v2_130.1K2490GD2route_grid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d2_v3_130.1K2490GD2route_grid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d2_v4_130.1K2490GD2route_grid</t>
+    <t>d1_v1_p130_log.csv</t>
+  </si>
+  <si>
+    <t>d1_v2_p130_log.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d2_v1_p130_log.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d2_v2_p130_log.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d1_v3_p130_log.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d2_v3_p130_log.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d1_v4_p130_log.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d2_v4_p130_log.csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n=0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -116,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,13 +157,51 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,8 +218,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -174,6 +258,334 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E15285-E395-490F-B95D-DF4995930CBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3133725" y="4953000"/>
+          <a:ext cx="866775" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(n=0)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x=4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>y=46</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>z=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面の値</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38987047-9F4B-4E6E-9818-6FFC881827D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="4953000"/>
+          <a:ext cx="866775" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(n-1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>x=(x-1079)/5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>y=(y-537)/5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>z=(z-10)/5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E519696-C63B-42E4-BDEB-83166C0E014B}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -496,93 +908,108 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B2">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>46</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>224</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
+        <v>46</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3">
-        <v>-1066</v>
-      </c>
-      <c r="C3">
-        <v>-486</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>-215</v>
       </c>
-      <c r="I3">
+      <c r="I5" s="3">
         <v>-98</v>
       </c>
-      <c r="J3">
+      <c r="J5" s="3">
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>-429</v>
-      </c>
-      <c r="I5">
-        <v>-205</v>
-      </c>
-      <c r="J5">
-        <v>-2</v>
-      </c>
-    </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="H7">
-        <v>-216</v>
+        <v>-215</v>
       </c>
       <c r="I7">
-        <v>-107</v>
+        <v>-98</v>
       </c>
       <c r="J7">
         <v>-2</v>
@@ -593,10 +1020,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B9">
         <v>4</v>
       </c>
@@ -607,78 +1037,90 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>-216</v>
+        <v>-211</v>
       </c>
       <c r="I9">
-        <v>-107</v>
+        <v>-63</v>
       </c>
       <c r="J9">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B10">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
         <v>-1066</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>-486</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-215</v>
+        <v>-429</v>
       </c>
       <c r="I11">
-        <v>-98</v>
+        <v>-205</v>
       </c>
       <c r="J11">
         <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>-429</v>
+        <v>-216</v>
       </c>
       <c r="I13">
-        <v>-205</v>
+        <v>-107</v>
       </c>
       <c r="J13">
         <v>-2</v>
@@ -702,10 +1144,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.4">
       <c r="H17">
         <v>-216</v>
       </c>
@@ -716,324 +1158,20 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.4">
       <c r="G18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B19">
-        <v>-1075</v>
-      </c>
-      <c r="C19">
-        <v>-490</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.4">
       <c r="H19">
-        <v>-1075</v>
+        <v>-216</v>
       </c>
       <c r="I19">
-        <v>-490</v>
+        <v>-107</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>-250</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>10</v>
-      </c>
-      <c r="K20">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>-250</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B24">
-        <v>-1075</v>
-      </c>
-      <c r="C24">
-        <v>-490</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>-2145</v>
-      </c>
-      <c r="I24">
-        <v>-1025</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>-250</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-      <c r="K25">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>-250</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>10</v>
-      </c>
-      <c r="K26">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B29">
-        <v>-2145</v>
-      </c>
-      <c r="C29">
-        <v>-1025</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>-1080</v>
-      </c>
-      <c r="I29">
-        <v>-535</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>-250</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>10</v>
-      </c>
-      <c r="K30">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>-250</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="K31">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B34">
-        <v>-1080</v>
-      </c>
-      <c r="C34">
-        <v>-535</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>-1080</v>
-      </c>
-      <c r="I34">
-        <v>-535</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>-250</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>10</v>
-      </c>
-      <c r="K35">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>-250</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>10</v>
-      </c>
-      <c r="K36">
-        <v>-250</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -1043,5 +1181,973 @@
   <headerFooter>
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7C88B4-AF8B-4784-BE0D-6E65FAFAC23F}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>230</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>225</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>-171.15</v>
+      </c>
+      <c r="F3">
+        <v>8.6602540378443909</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.33974596215561</v>
+      </c>
+      <c r="H3">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>224</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>220</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>-145.16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8.6602540378443909</v>
+      </c>
+      <c r="G4">
+        <v>-7.3205080756887702</v>
+      </c>
+      <c r="H4" s="2">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2">
+        <v>224</v>
+      </c>
+      <c r="J4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>215</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>-127</v>
+      </c>
+      <c r="F5">
+        <v>8.6602540378443909</v>
+      </c>
+      <c r="G5">
+        <v>-15.980762113533199</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>-1075</v>
+      </c>
+      <c r="C7">
+        <v>-490</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>-250</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1181.4503798298099</v>
+      </c>
+      <c r="G8">
+        <v>-1171.4503798298099</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1066</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-486</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>-250</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-1171.4503798298099</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>-250</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-1171.4503798298099</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>-1075</v>
+      </c>
+      <c r="C12">
+        <v>-490</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>-250</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1181.45038</v>
+      </c>
+      <c r="G13">
+        <v>-1171.45038</v>
+      </c>
+      <c r="H13" s="7">
+        <v>-1066</v>
+      </c>
+      <c r="I13" s="7">
+        <v>-486</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>-250</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1171.45038</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>-250</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-1171.45038</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>-1055</v>
+      </c>
+      <c r="C17">
+        <v>-315</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>-250</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1101.0336053000401</v>
+      </c>
+      <c r="G18">
+        <v>-1091.0336053000401</v>
+      </c>
+      <c r="H18" s="7">
+        <v>-1045</v>
+      </c>
+      <c r="I18" s="7">
+        <v>-312</v>
+      </c>
+      <c r="J18" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>-250</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>-1091.0336053000401</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>-250</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>-1091.0336053000401</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>-2145</v>
+      </c>
+      <c r="C22">
+        <v>-1025</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>-250</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2377.340952</v>
+      </c>
+      <c r="G23">
+        <v>-2367.340952</v>
+      </c>
+      <c r="H23" s="7">
+        <v>-2136</v>
+      </c>
+      <c r="I23" s="7">
+        <v>-1021</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>-250</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>-2367.340952</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>-250</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>-2367.340952</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>-1080</v>
+      </c>
+      <c r="C27">
+        <v>-535</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>-250</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1205.2904209999999</v>
+      </c>
+      <c r="G28">
+        <v>-1195.2904209999999</v>
+      </c>
+      <c r="H28" s="7">
+        <v>-1071</v>
+      </c>
+      <c r="I28" s="7">
+        <v>-531</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>-250</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>-1195.2904209999999</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>-250</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>-1195.2904209999999</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>-1080</v>
+      </c>
+      <c r="C32">
+        <v>-535</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>-250</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1205.29042143377</v>
+      </c>
+      <c r="G33">
+        <v>-1195.29042143377</v>
+      </c>
+      <c r="H33" s="7">
+        <v>-1071</v>
+      </c>
+      <c r="I33" s="7">
+        <v>-531</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>-250</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>-1195.29042143377</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>-250</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>-1195.29042143377</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>-1080</v>
+      </c>
+      <c r="C37">
+        <v>-535</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>-250</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1205.2904209999999</v>
+      </c>
+      <c r="G38">
+        <v>-1195.2904209999999</v>
+      </c>
+      <c r="H38" s="7">
+        <v>-1071</v>
+      </c>
+      <c r="I38" s="7">
+        <v>-531</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>-250</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>-1195.2904209999999</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>-250</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>-1195.2904209999999</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.6" bottom="0.11" header="0.27" footer="0.11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>